--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A0CAA4-654D-43FE-872C-064D068A2B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3B93B-CFB6-402E-9249-DD25E7198481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="2000" windowWidth="32110" windowHeight="18110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>テストケース名</t>
     <rPh sb="6" eb="7">
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>https://google.com/ncr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takeScreenshot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ページ]のスクリーンショットを撮る</t>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\tmp\b.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -205,10 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -513,11 +528,11 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
@@ -526,11 +541,11 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -553,12 +568,12 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -594,6 +609,17 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3B93B-CFB6-402E-9249-DD25E7198481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C539233-D67E-42B3-B98F-7DCC2BD88A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2000" windowWidth="32110" windowHeight="18110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2890" windowWidth="35190" windowHeight="18110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケースシート" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>テストケース名</t>
     <rPh sb="6" eb="7">
@@ -81,13 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[ページ]を開く</t>
-    <rPh sb="6" eb="7">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TestCaseName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -113,10 +106,6 @@
   </si>
   <si>
     <t>github kubera</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,6 +149,57 @@
   </si>
   <si>
     <t>C:\tmp\b.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Google]を開く</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\tmp\c.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isVisible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayTextButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayNonTextButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clickButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayで表示制御されたオブジェクトの表示非表示を検証できること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -212,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -220,10 +260,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -507,118 +556,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.58203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="26.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72">
+    <row r="1" spans="1:7" ht="72">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -631,8 +769,9 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{237FF75C-F619-421B-82AB-238E96D65E53}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{F48454FC-0D93-4E1F-BEE2-E9F397096C4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C539233-D67E-42B3-B98F-7DCC2BD88A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF86B6C-822B-4105-A3C5-223BB8DE1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2890" windowWidth="35190" windowHeight="18110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2890" windowWidth="35190" windowHeight="18110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="テストケースシート" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>テストケース名</t>
     <rPh sb="6" eb="7">
@@ -159,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\tmp\c.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://localhost:8080/status</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,6 +197,30 @@
   </si>
   <si>
     <t>displayで表示制御されたオブジェクトの表示非表示を検証できること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの使用可能不可能を検証できること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isEnable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enableButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disableButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\tmp\status1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\tmp\status2.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -252,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -274,6 +295,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -578,27 +605,24 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="F1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -621,17 +645,15 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
@@ -677,71 +699,56 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -756,9 +763,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -769,7 +774,248 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{237FF75C-F619-421B-82AB-238E96D65E53}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{F48454FC-0D93-4E1F-BEE2-E9F397096C4C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4A950D-4536-4D14-90A1-95F34AA1DFB8}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="54">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{2D5AF9B8-8138-499C-8BA6-C4ED6EFF4880}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{08974376-3B64-4088-83F7-583CF9FB7DB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>

--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF86B6C-822B-4105-A3C5-223BB8DE1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA1DD2-16A1-4C02-8662-2678A247AFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2890" windowWidth="35190" windowHeight="18110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2890" windowWidth="35190" windowHeight="18110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>テストケース名</t>
     <rPh sb="6" eb="7">
@@ -221,6 +221,52 @@
   </si>
   <si>
     <t>C:\tmp\status2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputTextarea</t>
+  </si>
+  <si>
+    <t>[テキストエリア]に値を入力する</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nameTextarea</t>
+  </si>
+  <si>
+    <t>assertTextarea</t>
+  </si>
+  <si>
+    <t>テキストエリアへの
+入力をした。</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストエリアに入力、検証ができること</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\tmp\input1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストエリアへの
+入力をした。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -273,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -301,6 +347,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -605,24 +660,27 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="F1" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -645,15 +703,17 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
@@ -686,84 +746,84 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="36">
+      <c r="A7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="36">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
+      <c r="G9" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -774,9 +834,10 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{237FF75C-F619-421B-82AB-238E96D65E53}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{788E0E6B-83A3-4ED9-9EFA-3407D90A511A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -784,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4A950D-4536-4D14-90A1-95F34AA1DFB8}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -803,11 +864,11 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
@@ -819,11 +880,11 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
@@ -846,11 +907,11 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>

--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA1DD2-16A1-4C02-8662-2678A247AFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2F42D-BF71-428E-9D31-9DDC180A3E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2890" windowWidth="35190" windowHeight="18110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="status" sheetId="2" r:id="rId2"/>
+    <sheet name="inputtype" sheetId="3" r:id="rId2"/>
+    <sheet name="status" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="308">
   <si>
     <t>テストケース名</t>
     <rPh sb="6" eb="7">
@@ -269,12 +270,846 @@
 入力をした。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Input - Type:Text</t>
+  </si>
+  <si>
+    <t>inputTextbox</t>
+  </si>
+  <si>
+    <t>[テキストボックス]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputText</t>
+  </si>
+  <si>
+    <t>assertTextbox</t>
+  </si>
+  <si>
+    <t>[テキストボックス]の値を検証する</t>
+  </si>
+  <si>
+    <t>isVisible</t>
+  </si>
+  <si>
+    <t>[テキストボックス]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>isEnable</t>
+  </si>
+  <si>
+    <t>[テキストボックス]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>__BVID__727823___BV_input__</t>
+  </si>
+  <si>
+    <t>nameInputResetText</t>
+  </si>
+  <si>
+    <t>nameInputTextArray</t>
+  </si>
+  <si>
+    <t>Input - Type:Radio</t>
+  </si>
+  <si>
+    <t>selectRadio</t>
+  </si>
+  <si>
+    <t>[ラジオボタン]の値を選択する</t>
+  </si>
+  <si>
+    <t>nameInputRadio</t>
+  </si>
+  <si>
+    <t>assertRadio</t>
+  </si>
+  <si>
+    <t>[ラジオボタン]の値を検証する</t>
+  </si>
+  <si>
+    <t>[ラジオボタン]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[ラジオボタン]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>nameInputRadioArray</t>
+  </si>
+  <si>
+    <t>Input - Type:checkbox</t>
+  </si>
+  <si>
+    <t>inputCheckbox</t>
+  </si>
+  <si>
+    <t>[チェックボックス]の選択状態を変更する</t>
+  </si>
+  <si>
+    <t>nameInputCheckA</t>
+  </si>
+  <si>
+    <t>assertCheckbox</t>
+  </si>
+  <si>
+    <t>[チェックボックス]の選択状態を検証する</t>
+  </si>
+  <si>
+    <t>[チェックボックス]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[チェックボックス]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>nameInputCheckB</t>
+  </si>
+  <si>
+    <t>nameInputCheckC</t>
+  </si>
+  <si>
+    <t>nameInputCheckArrayA</t>
+  </si>
+  <si>
+    <t>nameInputCheckArrayB</t>
+  </si>
+  <si>
+    <t>nameInputCheckArrayC</t>
+  </si>
+  <si>
+    <t>Input - Type:Password</t>
+  </si>
+  <si>
+    <t>inputPassword</t>
+  </si>
+  <si>
+    <t>[パスワード]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputPassword</t>
+  </si>
+  <si>
+    <t>assertPassword</t>
+  </si>
+  <si>
+    <t>[パスワード]の値を検証する</t>
+  </si>
+  <si>
+    <t>[パスワード]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[パスワード]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:File</t>
+  </si>
+  <si>
+    <t>inputFile</t>
+  </si>
+  <si>
+    <t>[ファイル]にファイルを選択する</t>
+  </si>
+  <si>
+    <t>nameInputFile</t>
+  </si>
+  <si>
+    <t>assertFile</t>
+  </si>
+  <si>
+    <t>[ファイル]の値を検証する</t>
+  </si>
+  <si>
+    <t>[ファイル]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[ファイル]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Search</t>
+  </si>
+  <si>
+    <t>inputSearch</t>
+  </si>
+  <si>
+    <t>[検索項目]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputSearch</t>
+  </si>
+  <si>
+    <t>assertSearch</t>
+  </si>
+  <si>
+    <t>[検索項目]の値を検証する</t>
+  </si>
+  <si>
+    <t>[検索項目]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[検索項目]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Tel</t>
+  </si>
+  <si>
+    <t>inputTel</t>
+  </si>
+  <si>
+    <t>[電話番号]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputTel</t>
+  </si>
+  <si>
+    <t>assertTel</t>
+  </si>
+  <si>
+    <t>[電話番号]の値を検証する</t>
+  </si>
+  <si>
+    <t>[電話番号]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[電話番号]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:URL</t>
+  </si>
+  <si>
+    <t>inputURL</t>
+  </si>
+  <si>
+    <t>[URL]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputURL</t>
+  </si>
+  <si>
+    <t>assertURL</t>
+  </si>
+  <si>
+    <t>[URL]の値を検証する</t>
+  </si>
+  <si>
+    <t>[URL]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[URL]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:EMail</t>
+  </si>
+  <si>
+    <t>inputEMail</t>
+  </si>
+  <si>
+    <t>[E-Mail]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputEMail</t>
+  </si>
+  <si>
+    <t>assertEMail</t>
+  </si>
+  <si>
+    <t>[E-Mail]の値を検証する</t>
+  </si>
+  <si>
+    <t>[E-Mail]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[E-Mail]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Date</t>
+  </si>
+  <si>
+    <t>inputDate</t>
+  </si>
+  <si>
+    <t>[日付項目]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputDate</t>
+  </si>
+  <si>
+    <t>assertDate</t>
+  </si>
+  <si>
+    <t>[日付項目]の値を検証する</t>
+  </si>
+  <si>
+    <t>[日付項目]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[日付項目]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Month</t>
+  </si>
+  <si>
+    <t>inputMonth</t>
+  </si>
+  <si>
+    <t>[年月項目]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputMonth</t>
+  </si>
+  <si>
+    <t>assertMonth</t>
+  </si>
+  <si>
+    <t>[年月項目]の値を検証する</t>
+  </si>
+  <si>
+    <t>[年月項目]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[年月項目]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Week</t>
+  </si>
+  <si>
+    <t>inputWeek</t>
+  </si>
+  <si>
+    <t>[週項目]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputWeek</t>
+  </si>
+  <si>
+    <t>assertWeek</t>
+  </si>
+  <si>
+    <t>[週項目]の値を検証する</t>
+  </si>
+  <si>
+    <t>[週項目]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[週項目]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Time</t>
+  </si>
+  <si>
+    <t>inputTime</t>
+  </si>
+  <si>
+    <t>[時刻項目]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputTime</t>
+  </si>
+  <si>
+    <t>assertTime</t>
+  </si>
+  <si>
+    <t>[時刻項目]の値を検証する</t>
+  </si>
+  <si>
+    <t>[時刻項目]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[時刻項目]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Datetime-local</t>
+  </si>
+  <si>
+    <t>inputDatetimeLocal</t>
+  </si>
+  <si>
+    <t>[年月日時分]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputDatetimeLocal</t>
+  </si>
+  <si>
+    <t>assertDatetimeLocal</t>
+  </si>
+  <si>
+    <t>[年月日時分]の値を検証する</t>
+  </si>
+  <si>
+    <t>[年月日時分]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[年月日時分]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Number</t>
+  </si>
+  <si>
+    <t>inputNumber</t>
+  </si>
+  <si>
+    <t>[数値項目]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputNumber</t>
+  </si>
+  <si>
+    <t>assertNumber</t>
+  </si>
+  <si>
+    <t>[数値項目]の値を検証する</t>
+  </si>
+  <si>
+    <t>[数値項目]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[数値項目]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Range</t>
+  </si>
+  <si>
+    <t>inputRange</t>
+  </si>
+  <si>
+    <t>[範囲]に値を入力する</t>
+  </si>
+  <si>
+    <t>nameInputRange</t>
+  </si>
+  <si>
+    <t>assertRange</t>
+  </si>
+  <si>
+    <t>[範囲]の値を検証する</t>
+  </si>
+  <si>
+    <t>[範囲]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[範囲]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Color</t>
+  </si>
+  <si>
+    <t>inputColor</t>
+  </si>
+  <si>
+    <t>[色選択]の色を選択する</t>
+  </si>
+  <si>
+    <t>nameInputColor</t>
+  </si>
+  <si>
+    <t>assertColor</t>
+  </si>
+  <si>
+    <t>[色選択]の色を検証する</t>
+  </si>
+  <si>
+    <t>[色選択]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[色選択]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Button</t>
+  </si>
+  <si>
+    <t>clickInputButton</t>
+  </si>
+  <si>
+    <t>[ボタン]をクリックする</t>
+  </si>
+  <si>
+    <t>nameInputButton</t>
+  </si>
+  <si>
+    <t>[ボタン]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[ボタン]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Image</t>
+  </si>
+  <si>
+    <t>clickInputImageButton</t>
+  </si>
+  <si>
+    <t>[画像ボタン]をクリックする</t>
+  </si>
+  <si>
+    <t>nameInputImage</t>
+  </si>
+  <si>
+    <t>[画像ボタン]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[画像ボタン]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Submit</t>
+  </si>
+  <si>
+    <t>clickInputSubmitButton</t>
+  </si>
+  <si>
+    <t>[送信ボタン]をクリックする</t>
+  </si>
+  <si>
+    <t>nameInputSubmit</t>
+  </si>
+  <si>
+    <t>[送信ボタン]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[送信ボタン]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Input - Type:Reset</t>
+  </si>
+  <si>
+    <t>clickInputResetButton</t>
+  </si>
+  <si>
+    <t>[リセットボタン]をクリックする</t>
+  </si>
+  <si>
+    <t>nameInputReset</t>
+  </si>
+  <si>
+    <t>[リセットボタン]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[リセットボタン]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>inputSelect</t>
+  </si>
+  <si>
+    <t>[選択]の選択内容を変更する</t>
+  </si>
+  <si>
+    <t>nameInputSelect</t>
+  </si>
+  <si>
+    <t>assertSelect</t>
+  </si>
+  <si>
+    <t>[選択]の選択内容を検証する</t>
+  </si>
+  <si>
+    <t>[選択]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[選択]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>inputSelectMulti</t>
+  </si>
+  <si>
+    <t>[複数選択]の選択内容を変更する</t>
+  </si>
+  <si>
+    <t>nameInputSelectMulti</t>
+  </si>
+  <si>
+    <t>assertSelectMulti</t>
+  </si>
+  <si>
+    <t>[複数選択]の選択内容を検証する</t>
+  </si>
+  <si>
+    <t>clearSelectMulti</t>
+  </si>
+  <si>
+    <t>[複数選択]の選択内容をクリアする</t>
+  </si>
+  <si>
+    <t>nameInputSelectArray</t>
+  </si>
+  <si>
+    <t>nameInputSelectArrayMulti</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>[テキストエリア]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[テキストエリア]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>nameInputTextareaArray</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>clickButton</t>
+  </si>
+  <si>
+    <t>nameButton</t>
+  </si>
+  <si>
+    <t>nameButtonArray</t>
+  </si>
+  <si>
+    <t>Anchor Link</t>
+  </si>
+  <si>
+    <t>clickLink</t>
+  </si>
+  <si>
+    <t>[リンク]をクリックする</t>
+  </si>
+  <si>
+    <t>link_text</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>[リンク]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[リンク]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>リンク</t>
+  </si>
+  <si>
+    <t>リンク配列</t>
+  </si>
+  <si>
+    <t>Img</t>
+  </si>
+  <si>
+    <t>[画像]をクリックする</t>
+  </si>
+  <si>
+    <t>nameButtonImage</t>
+  </si>
+  <si>
+    <t>[画像]の表示状態を検証する</t>
+  </si>
+  <si>
+    <t>[画像]の使用可能状態を検証する</t>
+  </si>
+  <si>
+    <t>nameButtonImageArray</t>
+  </si>
+  <si>
+    <t>[input]を開く</t>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passwordを入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルに対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/json/json-array.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>json-array.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索文字列を入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*819012345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.mail@kubera.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-W22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23:50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日時分入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-08-24T23:55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲バー入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色入力項目に対して入力と検証ができること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#B80000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inputボタンをクリックできること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assertText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idInputButtonClickResult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列を検証する</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input Button がクリックされました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Imageボタンをクリックできること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idInputImageClickResult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input Image がクリックされました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submitボタンをクリックできること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idInputSubmitClickResult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input Submit がクリックされました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resetボタンをクリックできること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idを入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキップ対象</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +1132,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -357,6 +1203,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -640,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -660,11 +1518,11 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
@@ -676,11 +1534,11 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -703,11 +1561,11 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
@@ -842,6 +1700,5122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DB0A6-176D-47F3-B48F-484BEC59E84F}">
+  <dimension ref="A1:W301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="16" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="25.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="54">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="W2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="G114" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="10"/>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="G115" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+    </row>
+    <row r="116" spans="1:23">
+      <c r="A116" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:23">
+      <c r="A117" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:23">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="1:23">
+      <c r="A119" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="H119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
+      <c r="A120" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="H120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
+      <c r="A121" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:23">
+      <c r="A122" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+    </row>
+    <row r="124" spans="1:23">
+      <c r="A124" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="I124" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
+      <c r="A125" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="I125" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
+      <c r="A126" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="1:23">
+      <c r="A127" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+    </row>
+    <row r="129" spans="1:23">
+      <c r="A129" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="J129" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
+      <c r="S129" s="15"/>
+      <c r="T129" s="15"/>
+      <c r="U129" s="15"/>
+      <c r="V129" s="15"/>
+      <c r="W129" s="15"/>
+    </row>
+    <row r="130" spans="1:23">
+      <c r="A130" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="J130" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+      <c r="S130" s="15"/>
+      <c r="T130" s="15"/>
+      <c r="U130" s="15"/>
+      <c r="V130" s="15"/>
+      <c r="W130" s="15"/>
+    </row>
+    <row r="131" spans="1:23">
+      <c r="A131" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="1:23">
+      <c r="A132" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:23">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+    </row>
+    <row r="134" spans="1:23">
+      <c r="A134" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="K134" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
+      <c r="S134" s="15"/>
+      <c r="T134" s="15"/>
+      <c r="U134" s="15"/>
+      <c r="V134" s="15"/>
+      <c r="W134" s="15"/>
+    </row>
+    <row r="135" spans="1:23">
+      <c r="A135" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="K135" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+    </row>
+    <row r="136" spans="1:23">
+      <c r="A136" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="1:23">
+      <c r="A137" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:23">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+    </row>
+    <row r="139" spans="1:23">
+      <c r="A139" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="L139" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="18"/>
+      <c r="T139" s="18"/>
+      <c r="U139" s="18"/>
+      <c r="V139" s="18"/>
+      <c r="W139" s="18"/>
+    </row>
+    <row r="140" spans="1:23">
+      <c r="A140" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="L140" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
+      <c r="R140" s="18"/>
+      <c r="S140" s="18"/>
+      <c r="T140" s="18"/>
+      <c r="U140" s="18"/>
+      <c r="V140" s="18"/>
+      <c r="W140" s="18"/>
+    </row>
+    <row r="141" spans="1:23">
+      <c r="A141" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:23">
+      <c r="A142" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:23">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+    </row>
+    <row r="144" spans="1:23">
+      <c r="A144" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="M144" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="N144" s="18"/>
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+      <c r="Q144" s="18"/>
+      <c r="R144" s="18"/>
+      <c r="S144" s="18"/>
+      <c r="T144" s="18"/>
+      <c r="U144" s="18"/>
+      <c r="V144" s="18"/>
+      <c r="W144" s="18"/>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E145" s="10"/>
+      <c r="M145" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="N145" s="18"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+      <c r="Q145" s="18"/>
+      <c r="R145" s="18"/>
+      <c r="S145" s="18"/>
+      <c r="T145" s="18"/>
+      <c r="U145" s="18"/>
+      <c r="V145" s="18"/>
+      <c r="W145" s="18"/>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148" s="14"/>
+      <c r="B148" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="N149" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="N150" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="1:23">
+      <c r="A152" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="1:23">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+    </row>
+    <row r="154" spans="1:23">
+      <c r="A154" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="O154" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="18"/>
+      <c r="R154" s="18"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="18"/>
+      <c r="U154" s="18"/>
+      <c r="V154" s="18"/>
+      <c r="W154" s="18"/>
+    </row>
+    <row r="155" spans="1:23">
+      <c r="A155" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="O155" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="P155" s="18"/>
+      <c r="Q155" s="18"/>
+      <c r="R155" s="18"/>
+      <c r="S155" s="18"/>
+      <c r="T155" s="18"/>
+      <c r="U155" s="18"/>
+      <c r="V155" s="18"/>
+      <c r="W155" s="18"/>
+    </row>
+    <row r="156" spans="1:23">
+      <c r="A156" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:23">
+      <c r="A157" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="1:23">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+    </row>
+    <row r="159" spans="1:23">
+      <c r="A159" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="P159" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
+      <c r="A160" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="P160" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
+      <c r="A161" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E161" s="10"/>
+    </row>
+    <row r="162" spans="1:23">
+      <c r="A162" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" s="10"/>
+    </row>
+    <row r="163" spans="1:23">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="A164" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="Q164" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="R164" s="18"/>
+      <c r="S164" s="18"/>
+      <c r="T164" s="18"/>
+      <c r="U164" s="18"/>
+      <c r="V164" s="18"/>
+      <c r="W164" s="18"/>
+    </row>
+    <row r="165" spans="1:23">
+      <c r="A165" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="Q165" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="R165" s="18"/>
+      <c r="S165" s="18"/>
+      <c r="T165" s="18"/>
+      <c r="U165" s="18"/>
+      <c r="V165" s="18"/>
+      <c r="W165" s="18"/>
+    </row>
+    <row r="166" spans="1:23">
+      <c r="A166" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E166" s="10"/>
+    </row>
+    <row r="167" spans="1:23">
+      <c r="A167" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E167" s="10"/>
+    </row>
+    <row r="168" spans="1:23">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+    </row>
+    <row r="169" spans="1:23">
+      <c r="A169" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" s="10"/>
+      <c r="R169" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="S169" s="18"/>
+      <c r="T169" s="18"/>
+      <c r="U169" s="18"/>
+      <c r="V169" s="18"/>
+      <c r="W169" s="18"/>
+    </row>
+    <row r="170" spans="1:23">
+      <c r="A170" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E170" s="10"/>
+      <c r="R170" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="S170" s="18"/>
+      <c r="T170" s="18"/>
+      <c r="U170" s="18"/>
+      <c r="V170" s="18"/>
+      <c r="W170" s="18"/>
+    </row>
+    <row r="171" spans="1:23">
+      <c r="A171" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:23">
+      <c r="A172" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E172" s="10"/>
+    </row>
+    <row r="173" spans="1:23">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:23">
+      <c r="A174" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E174" s="10"/>
+      <c r="S174" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
+      <c r="A175" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E175" s="10"/>
+      <c r="S175" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
+      <c r="A176" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E176" s="10"/>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E177" s="10"/>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E179" s="10"/>
+      <c r="T179" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E180" s="10"/>
+      <c r="T180" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="10"/>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E182" s="10"/>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E184" s="10"/>
+      <c r="U184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="A185" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E185" s="10"/>
+      <c r="U185" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E186" s="10"/>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="A187" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E187" s="10"/>
+    </row>
+    <row r="188" spans="1:22">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="A189" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="V189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
+      <c r="A190" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E190" s="10"/>
+      <c r="V190" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="A191" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E191" s="10"/>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="A192" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E192" s="10"/>
+    </row>
+    <row r="193" spans="1:23">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+    </row>
+    <row r="194" spans="1:23">
+      <c r="A194" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E194" s="10"/>
+      <c r="W194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
+      <c r="A195" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E195" s="10"/>
+      <c r="W195" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23">
+      <c r="A196" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E196" s="10"/>
+      <c r="W196" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
+      <c r="A197" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E197" s="10"/>
+    </row>
+    <row r="198" spans="1:23">
+      <c r="A198" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E198" s="10"/>
+    </row>
+    <row r="199" spans="1:23">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+    </row>
+    <row r="200" spans="1:23">
+      <c r="A200" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E200" s="10"/>
+    </row>
+    <row r="201" spans="1:23">
+      <c r="A201" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E201" s="10"/>
+    </row>
+    <row r="202" spans="1:23">
+      <c r="A202" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E202" s="10"/>
+    </row>
+    <row r="203" spans="1:23">
+      <c r="A203" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E203" s="10"/>
+    </row>
+    <row r="204" spans="1:23">
+      <c r="A204" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E204" s="10"/>
+    </row>
+    <row r="205" spans="1:23">
+      <c r="A205" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E205" s="10"/>
+    </row>
+    <row r="206" spans="1:23">
+      <c r="A206" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E206" s="10"/>
+    </row>
+    <row r="207" spans="1:23">
+      <c r="A207" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E207" s="10"/>
+    </row>
+    <row r="208" spans="1:23">
+      <c r="A208" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E208" s="10"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E209" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E210" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E211" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E212" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E213" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E214" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E215" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E216" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E217" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E218" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E219" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E220" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E221" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E222" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E223" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E224" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E225" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E226" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E227" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E228" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E229" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E230" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E231" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E232" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E233" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E234" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E235" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="14"/>
+      <c r="B236" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E237" s="10"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E238" s="10"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E239" s="10"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E240" s="10"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E241" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E243" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E244" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E245" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E246" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E247" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E248" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E249" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E250" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E251" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E252" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="14"/>
+      <c r="B253" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E254" s="10"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E255" s="10"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E256" s="10"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E257" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E258" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E259" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E260" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E261" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E262" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E263" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E264" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E265" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="14"/>
+      <c r="B266" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E267" s="10"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E268" s="10"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E269" s="10"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E270" s="10"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E271" s="10"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E272" s="10"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E273" s="10"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E274" s="10"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E275" s="10"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E276" s="10"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E277" s="10"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E278" s="10"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E279" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E280" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E281" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E282" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E283" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E284" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E285" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E286" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E287" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="14"/>
+      <c r="B288" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="14"/>
+    </row>
+    <row r="289" spans="1:23">
+      <c r="A289" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E289" s="10"/>
+    </row>
+    <row r="290" spans="1:23">
+      <c r="A290" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E290" s="10"/>
+    </row>
+    <row r="291" spans="1:23">
+      <c r="A291" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E291" s="10"/>
+    </row>
+    <row r="292" spans="1:23">
+      <c r="A292" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E292" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23">
+      <c r="A293" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E293" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23">
+      <c r="A294" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E294" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23">
+      <c r="A295" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E295" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23">
+      <c r="A296" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E296" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23">
+      <c r="A297" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E297" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23">
+      <c r="A298" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E298" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23">
+      <c r="A299" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E299" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23">
+      <c r="A300" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E300" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23">
+      <c r="A301" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+      <c r="G301" s="12"/>
+      <c r="H301" s="13"/>
+      <c r="I301" s="13"/>
+      <c r="J301" s="13"/>
+      <c r="K301" s="13"/>
+      <c r="L301" s="13"/>
+      <c r="M301" s="13"/>
+      <c r="N301" s="13"/>
+      <c r="O301" s="13"/>
+      <c r="P301" s="13"/>
+      <c r="Q301" s="13"/>
+      <c r="R301" s="13"/>
+      <c r="S301" s="13"/>
+      <c r="T301" s="13"/>
+      <c r="U301" s="13"/>
+      <c r="V301" s="13"/>
+      <c r="W301" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{9ED399C6-9CC9-4A2A-B81E-711C0027E7DA}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{9CFC68E6-D7F3-4FF5-B297-7AE1566719B6}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{6D8BABCC-5F38-4D4C-B128-EA6EDEA1558C}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{D64F2A81-4110-4AE9-8003-56F571051D27}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{9CE05258-5C64-49CB-9205-4D205198D6B6}"/>
+    <hyperlink ref="J129" r:id="rId6" xr:uid="{0627147F-A2DC-4DFE-8170-1011A47D83FA}"/>
+    <hyperlink ref="J130" r:id="rId7" xr:uid="{2D8E64DA-00F9-4205-A32C-9319535754A7}"/>
+    <hyperlink ref="K4" r:id="rId8" xr:uid="{FB63195B-9351-46AE-8B09-839C04FFE33E}"/>
+    <hyperlink ref="K134" r:id="rId9" xr:uid="{966D005E-6021-4ABF-AC4B-572E4A07B486}"/>
+    <hyperlink ref="K135" r:id="rId10" xr:uid="{0DFDE418-52E0-4E71-A666-B6EB7E7853D3}"/>
+    <hyperlink ref="L4" r:id="rId11" xr:uid="{E8C26341-82EB-4CC2-8D92-9FA8A0793877}"/>
+    <hyperlink ref="M4" r:id="rId12" xr:uid="{8122D9EC-E5EA-4C6E-A602-D547805E0B1D}"/>
+    <hyperlink ref="N4" r:id="rId13" xr:uid="{C9E7D643-D4EB-4EC4-98BC-5C7287C09FD6}"/>
+    <hyperlink ref="O4" r:id="rId14" xr:uid="{E53739B1-F88C-43E0-9674-E10A9A197895}"/>
+    <hyperlink ref="P4" r:id="rId15" xr:uid="{B11DB745-EF5C-4D80-8041-2DE59A3254E6}"/>
+    <hyperlink ref="Q4" r:id="rId16" xr:uid="{AFCFBE39-FAE0-4939-976B-E22A54661270}"/>
+    <hyperlink ref="R4" r:id="rId17" xr:uid="{3C1799B2-3048-4069-B568-7B1FAA06F046}"/>
+    <hyperlink ref="S4" r:id="rId18" xr:uid="{23BC8F55-5705-4B3C-A017-53B69B57B00D}"/>
+    <hyperlink ref="T4" r:id="rId19" xr:uid="{14900BC4-A4E5-444C-A40D-41205CEDC07A}"/>
+    <hyperlink ref="U4" r:id="rId20" xr:uid="{47892E38-1D86-4AC7-BEF5-AC16E1C698AD}"/>
+    <hyperlink ref="V4" r:id="rId21" xr:uid="{79B90D7A-436F-43E7-BC74-732CD8463A71}"/>
+    <hyperlink ref="W4" r:id="rId22" xr:uid="{62E869D3-DD90-4BEF-B7BA-903149A68E0D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4A950D-4536-4D14-90A1-95F34AA1DFB8}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -864,11 +6838,11 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
@@ -880,11 +6854,11 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
@@ -907,11 +6881,11 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>

--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2F42D-BF71-428E-9D31-9DDC180A3E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A6C18-B289-44D0-8812-7D84B62758A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="309">
   <si>
     <t>テストケース名</t>
     <rPh sb="6" eb="7">
@@ -1101,8 +1101,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>v</t>
-    <phoneticPr fontId="1"/>
+    <t>isEmpty</t>
+  </si>
+  <si>
+    <t>[テキストボックス]の値が空であることを検証する</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1518,11 +1520,11 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1534,11 +1536,11 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -1561,11 +1563,11 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1704,10 +1706,10 @@
   <dimension ref="A1:W301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="U162" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1726,11 +1728,11 @@
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="12"/>
       <c r="F1" s="16" t="s">
         <v>264</v>
@@ -1791,15 +1793,12 @@
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="12"/>
-      <c r="W2" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="12" t="s">
@@ -1822,11 +1821,11 @@
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="12"/>
       <c r="F4" s="15" t="s">
         <v>45</v>
@@ -4143,20 +4142,20 @@
         <v>136</v>
       </c>
       <c r="E139" s="10"/>
-      <c r="L139" s="18" t="s">
+      <c r="L139" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="18"/>
-      <c r="T139" s="18"/>
-      <c r="U139" s="18"/>
-      <c r="V139" s="18"/>
-      <c r="W139" s="18"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
+      <c r="R139" s="17"/>
+      <c r="S139" s="17"/>
+      <c r="T139" s="17"/>
+      <c r="U139" s="17"/>
+      <c r="V139" s="17"/>
+      <c r="W139" s="17"/>
     </row>
     <row r="140" spans="1:23">
       <c r="A140" s="10" t="s">
@@ -4172,20 +4171,20 @@
         <v>136</v>
       </c>
       <c r="E140" s="10"/>
-      <c r="L140" s="18" t="s">
+      <c r="L140" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="18"/>
-      <c r="P140" s="18"/>
-      <c r="Q140" s="18"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="18"/>
-      <c r="T140" s="18"/>
-      <c r="U140" s="18"/>
-      <c r="V140" s="18"/>
-      <c r="W140" s="18"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
+      <c r="R140" s="17"/>
+      <c r="S140" s="17"/>
+      <c r="T140" s="17"/>
+      <c r="U140" s="17"/>
+      <c r="V140" s="17"/>
+      <c r="W140" s="17"/>
     </row>
     <row r="141" spans="1:23">
       <c r="A141" s="10" t="s">
@@ -4240,19 +4239,19 @@
         <v>144</v>
       </c>
       <c r="E144" s="10"/>
-      <c r="M144" s="18" t="s">
+      <c r="M144" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="N144" s="18"/>
-      <c r="O144" s="18"/>
-      <c r="P144" s="18"/>
-      <c r="Q144" s="18"/>
-      <c r="R144" s="18"/>
-      <c r="S144" s="18"/>
-      <c r="T144" s="18"/>
-      <c r="U144" s="18"/>
-      <c r="V144" s="18"/>
-      <c r="W144" s="18"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
+      <c r="R144" s="17"/>
+      <c r="S144" s="17"/>
+      <c r="T144" s="17"/>
+      <c r="U144" s="17"/>
+      <c r="V144" s="17"/>
+      <c r="W144" s="17"/>
     </row>
     <row r="145" spans="1:23">
       <c r="A145" s="10" t="s">
@@ -4268,19 +4267,19 @@
         <v>144</v>
       </c>
       <c r="E145" s="10"/>
-      <c r="M145" s="18" t="s">
+      <c r="M145" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="N145" s="18"/>
-      <c r="O145" s="18"/>
-      <c r="P145" s="18"/>
-      <c r="Q145" s="18"/>
-      <c r="R145" s="18"/>
-      <c r="S145" s="18"/>
-      <c r="T145" s="18"/>
-      <c r="U145" s="18"/>
-      <c r="V145" s="18"/>
-      <c r="W145" s="18"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="17"/>
     </row>
     <row r="146" spans="1:23">
       <c r="A146" s="10" t="s">
@@ -4410,17 +4409,17 @@
         <v>160</v>
       </c>
       <c r="E154" s="10"/>
-      <c r="O154" s="18" t="s">
+      <c r="O154" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="P154" s="18"/>
-      <c r="Q154" s="18"/>
-      <c r="R154" s="18"/>
-      <c r="S154" s="18"/>
-      <c r="T154" s="18"/>
-      <c r="U154" s="18"/>
-      <c r="V154" s="18"/>
-      <c r="W154" s="18"/>
+      <c r="P154" s="17"/>
+      <c r="Q154" s="17"/>
+      <c r="R154" s="17"/>
+      <c r="S154" s="17"/>
+      <c r="T154" s="17"/>
+      <c r="U154" s="17"/>
+      <c r="V154" s="17"/>
+      <c r="W154" s="17"/>
     </row>
     <row r="155" spans="1:23">
       <c r="A155" s="10" t="s">
@@ -4436,17 +4435,17 @@
         <v>160</v>
       </c>
       <c r="E155" s="10"/>
-      <c r="O155" s="18" t="s">
+      <c r="O155" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="18"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="18"/>
-      <c r="U155" s="18"/>
-      <c r="V155" s="18"/>
-      <c r="W155" s="18"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
+      <c r="R155" s="17"/>
+      <c r="S155" s="17"/>
+      <c r="T155" s="17"/>
+      <c r="U155" s="17"/>
+      <c r="V155" s="17"/>
+      <c r="W155" s="17"/>
     </row>
     <row r="156" spans="1:23">
       <c r="A156" s="10" t="s">
@@ -4576,15 +4575,15 @@
         <v>176</v>
       </c>
       <c r="E164" s="10"/>
-      <c r="Q164" s="18" t="s">
+      <c r="Q164" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="R164" s="18"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="18"/>
-      <c r="U164" s="18"/>
-      <c r="V164" s="18"/>
-      <c r="W164" s="18"/>
+      <c r="R164" s="17"/>
+      <c r="S164" s="17"/>
+      <c r="T164" s="17"/>
+      <c r="U164" s="17"/>
+      <c r="V164" s="17"/>
+      <c r="W164" s="17"/>
     </row>
     <row r="165" spans="1:23">
       <c r="A165" s="10" t="s">
@@ -4600,15 +4599,15 @@
         <v>176</v>
       </c>
       <c r="E165" s="10"/>
-      <c r="Q165" s="18" t="s">
+      <c r="Q165" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="R165" s="18"/>
-      <c r="S165" s="18"/>
-      <c r="T165" s="18"/>
-      <c r="U165" s="18"/>
-      <c r="V165" s="18"/>
-      <c r="W165" s="18"/>
+      <c r="R165" s="17"/>
+      <c r="S165" s="17"/>
+      <c r="T165" s="17"/>
+      <c r="U165" s="17"/>
+      <c r="V165" s="17"/>
+      <c r="W165" s="17"/>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" s="10" t="s">
@@ -4663,14 +4662,14 @@
         <v>184</v>
       </c>
       <c r="E169" s="10"/>
-      <c r="R169" s="18" t="s">
+      <c r="R169" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="S169" s="18"/>
-      <c r="T169" s="18"/>
-      <c r="U169" s="18"/>
-      <c r="V169" s="18"/>
-      <c r="W169" s="18"/>
+      <c r="S169" s="17"/>
+      <c r="T169" s="17"/>
+      <c r="U169" s="17"/>
+      <c r="V169" s="17"/>
+      <c r="W169" s="17"/>
     </row>
     <row r="170" spans="1:23">
       <c r="A170" s="10" t="s">
@@ -4686,14 +4685,14 @@
         <v>184</v>
       </c>
       <c r="E170" s="10"/>
-      <c r="R170" s="18" t="s">
+      <c r="R170" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="S170" s="18"/>
-      <c r="T170" s="18"/>
-      <c r="U170" s="18"/>
-      <c r="V170" s="18"/>
-      <c r="W170" s="18"/>
+      <c r="S170" s="17"/>
+      <c r="T170" s="17"/>
+      <c r="U170" s="17"/>
+      <c r="V170" s="17"/>
+      <c r="W170" s="17"/>
     </row>
     <row r="171" spans="1:23">
       <c r="A171" s="10" t="s">
@@ -5072,10 +5071,10 @@
     </row>
     <row r="196" spans="1:23">
       <c r="A196" s="10" t="s">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>41</v>
@@ -5085,7 +5084,7 @@
       </c>
       <c r="E196" s="10"/>
       <c r="W196" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -6838,11 +6837,11 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
@@ -6854,11 +6853,11 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
@@ -6881,11 +6880,11 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>

--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A6C18-B289-44D0-8812-7D84B62758A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF37C89-9875-45CF-82B2-8734273F3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="345">
   <si>
     <t>テストケース名</t>
     <rPh sb="6" eb="7">
@@ -1105,6 +1105,114 @@
   </si>
   <si>
     <t>[テキストボックス]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearPassword</t>
+  </si>
+  <si>
+    <t>[パスワード]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[パスワード]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearFile</t>
+  </si>
+  <si>
+    <t>[ファイル]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[ファイル]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearSearch</t>
+  </si>
+  <si>
+    <t>[検索項目]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[検索項目]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearTel</t>
+  </si>
+  <si>
+    <t>[電話番号]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[電話番号]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearURL</t>
+  </si>
+  <si>
+    <t>[URL]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[URL]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearEMail</t>
+  </si>
+  <si>
+    <t>[E-Mail]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[E-Mail]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearDate</t>
+  </si>
+  <si>
+    <t>[日付項目]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[日付項目]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearMonth</t>
+  </si>
+  <si>
+    <t>[年月項目]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[年月項目]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearWeek</t>
+  </si>
+  <si>
+    <t>[週項目]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[週項目]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearTime</t>
+  </si>
+  <si>
+    <t>[時刻項目]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[時刻項目]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearDatetimeLocal</t>
+  </si>
+  <si>
+    <t>[年月日時分]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[年月日時分]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>clearNumber</t>
+  </si>
+  <si>
+    <t>[数値項目]の値をクリアする</t>
+  </si>
+  <si>
+    <t>[数値項目]の値が空であることを検証する</t>
   </si>
 </sst>
 </file>
@@ -1703,13 +1811,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DB0A6-176D-47F3-B48F-484BEC59E84F}">
-  <dimension ref="A1:W301"/>
+  <dimension ref="A1:W325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="U162" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="O148" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
+      <selection pane="bottomRight" activeCell="Q188" sqref="Q188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3632,12 +3740,12 @@
       <c r="V110" s="10"/>
       <c r="W110" s="10"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" s="10" customFormat="1">
       <c r="A111" s="10" t="s">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>41</v>
@@ -3645,14 +3753,16 @@
       <c r="D111" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E111" s="10"/>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="F111" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" s="10" customFormat="1">
       <c r="A112" s="10" t="s">
-        <v>57</v>
+        <v>307</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>41</v>
@@ -3660,91 +3770,55 @@
       <c r="D112" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="113" spans="1:23">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="A113" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:23">
       <c r="A114" s="10" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E114" s="10"/>
-      <c r="G114" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="10"/>
-      <c r="R114" s="10"/>
-      <c r="S114" s="10"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="10"/>
-      <c r="W114" s="10"/>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="G115" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-      <c r="O115" s="10"/>
-      <c r="P115" s="10"/>
-      <c r="Q115" s="10"/>
-      <c r="R115" s="10"/>
-      <c r="S115" s="10"/>
-      <c r="T115" s="10"/>
-      <c r="U115" s="10"/>
-      <c r="V115" s="10"/>
-      <c r="W115" s="10"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
     </row>
     <row r="116" spans="1:23">
       <c r="A116" s="10" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>41</v>
@@ -3753,13 +3827,32 @@
         <v>96</v>
       </c>
       <c r="E116" s="10"/>
+      <c r="G116" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+      <c r="W116" s="10"/>
     </row>
     <row r="117" spans="1:23">
       <c r="A117" s="10" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>41</v>
@@ -3768,436 +3861,425 @@
         <v>96</v>
       </c>
       <c r="E117" s="10"/>
-    </row>
-    <row r="118" spans="1:23">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="G117" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="10"/>
+    </row>
+    <row r="118" spans="1:23" s="10" customFormat="1">
+      <c r="A118" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" s="10" customFormat="1">
       <c r="A119" s="10" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="H119" t="s">
-        <v>270</v>
+        <v>96</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:23">
       <c r="A120" s="10" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E120" s="10"/>
-      <c r="H120" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="121" spans="1:23">
       <c r="A121" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D121" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:23">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E121" s="10"/>
-    </row>
-    <row r="122" spans="1:23">
-      <c r="A122" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E122" s="10"/>
-    </row>
-    <row r="123" spans="1:23">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
+      <c r="E123" s="10"/>
+      <c r="H123" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="124" spans="1:23">
       <c r="A124" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E124" s="10"/>
-      <c r="I124" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="H124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" s="10" customFormat="1">
       <c r="A125" s="10" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>114</v>
+        <v>316</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="I125" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23">
+        <v>104</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="10" customFormat="1">
       <c r="A126" s="10" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E126" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="127" spans="1:23">
       <c r="A127" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E127" s="10"/>
-    </row>
-    <row r="128" spans="1:23">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
+      <c r="B128" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E128" s="10"/>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E129" s="10"/>
-      <c r="J129" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
-      <c r="S129" s="15"/>
-      <c r="T129" s="15"/>
-      <c r="U129" s="15"/>
-      <c r="V129" s="15"/>
-      <c r="W129" s="15"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
     </row>
     <row r="130" spans="1:23">
       <c r="A130" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E130" s="10"/>
-      <c r="J130" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-      <c r="O130" s="15"/>
-      <c r="P130" s="15"/>
-      <c r="Q130" s="15"/>
-      <c r="R130" s="15"/>
-      <c r="S130" s="15"/>
-      <c r="T130" s="15"/>
-      <c r="U130" s="15"/>
-      <c r="V130" s="15"/>
-      <c r="W130" s="15"/>
+      <c r="I130" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="131" spans="1:23">
       <c r="A131" s="10" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E131" s="10"/>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="I131" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" s="10" customFormat="1">
       <c r="A132" s="10" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E132" s="10"/>
-    </row>
-    <row r="133" spans="1:23">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" s="10" customFormat="1">
+      <c r="A133" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="134" spans="1:23">
       <c r="A134" s="10" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E134" s="10"/>
-      <c r="K134" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-      <c r="O134" s="15"/>
-      <c r="P134" s="15"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="15"/>
-      <c r="S134" s="15"/>
-      <c r="T134" s="15"/>
-      <c r="U134" s="15"/>
-      <c r="V134" s="15"/>
-      <c r="W134" s="15"/>
     </row>
     <row r="135" spans="1:23">
       <c r="A135" s="10" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E135" s="10"/>
-      <c r="K135" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
-      <c r="O135" s="15"/>
-      <c r="P135" s="15"/>
-      <c r="Q135" s="15"/>
-      <c r="R135" s="15"/>
-      <c r="S135" s="15"/>
-      <c r="T135" s="15"/>
-      <c r="U135" s="15"/>
-      <c r="V135" s="15"/>
-      <c r="W135" s="15"/>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E136" s="10"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
     </row>
     <row r="137" spans="1:23">
       <c r="A137" s="10" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E137" s="10"/>
+      <c r="J137" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
+      <c r="S137" s="15"/>
+      <c r="T137" s="15"/>
+      <c r="U137" s="15"/>
+      <c r="V137" s="15"/>
+      <c r="W137" s="15"/>
     </row>
     <row r="138" spans="1:23">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="A138" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="J138" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
+      <c r="S138" s="15"/>
+      <c r="T138" s="15"/>
+      <c r="U138" s="15"/>
+      <c r="V138" s="15"/>
+      <c r="W138" s="15"/>
+    </row>
+    <row r="139" spans="1:23" s="10" customFormat="1">
       <c r="A139" s="10" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="L139" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17"/>
-      <c r="T139" s="17"/>
-      <c r="U139" s="17"/>
-      <c r="V139" s="17"/>
-      <c r="W139" s="17"/>
-    </row>
-    <row r="140" spans="1:23">
+        <v>120</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" s="10" customFormat="1">
       <c r="A140" s="10" t="s">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>138</v>
+        <v>323</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E140" s="10"/>
-      <c r="L140" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
-      <c r="R140" s="17"/>
-      <c r="S140" s="17"/>
-      <c r="T140" s="17"/>
-      <c r="U140" s="17"/>
-      <c r="V140" s="17"/>
-      <c r="W140" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="141" spans="1:23">
       <c r="A141" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E141" s="10"/>
     </row>
@@ -4206,20 +4288,20 @@
         <v>57</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E142" s="10"/>
     </row>
     <row r="143" spans="1:23">
       <c r="A143" s="14"/>
       <c r="B143" s="14" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
@@ -4227,546 +4309,590 @@
     </row>
     <row r="144" spans="1:23">
       <c r="A144" s="10" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E144" s="10"/>
-      <c r="M144" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="17"/>
-      <c r="T144" s="17"/>
-      <c r="U144" s="17"/>
-      <c r="V144" s="17"/>
-      <c r="W144" s="17"/>
+      <c r="K144" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="15"/>
+      <c r="S144" s="15"/>
+      <c r="T144" s="15"/>
+      <c r="U144" s="15"/>
+      <c r="V144" s="15"/>
+      <c r="W144" s="15"/>
     </row>
     <row r="145" spans="1:23">
       <c r="A145" s="10" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E145" s="10"/>
-      <c r="M145" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="17"/>
-      <c r="T145" s="17"/>
-      <c r="U145" s="17"/>
-      <c r="V145" s="17"/>
-      <c r="W145" s="17"/>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="K145" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="15"/>
+      <c r="U145" s="15"/>
+      <c r="V145" s="15"/>
+      <c r="W145" s="15"/>
+    </row>
+    <row r="146" spans="1:23" s="10" customFormat="1">
       <c r="A146" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" s="10" customFormat="1">
+      <c r="A147" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E146" s="10"/>
-    </row>
-    <row r="147" spans="1:23">
-      <c r="A147" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E147" s="10"/>
-    </row>
-    <row r="148" spans="1:23">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
+      <c r="B148" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" spans="1:23">
       <c r="A149" s="10" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E149" s="10"/>
-      <c r="N149" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="150" spans="1:23">
-      <c r="A150" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E150" s="10"/>
-      <c r="N150" t="s">
-        <v>282</v>
-      </c>
+      <c r="A150" s="14"/>
+      <c r="B150" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
     </row>
     <row r="151" spans="1:23">
       <c r="A151" s="10" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E151" s="10"/>
+      <c r="L151" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
+      <c r="R151" s="17"/>
+      <c r="S151" s="17"/>
+      <c r="T151" s="17"/>
+      <c r="U151" s="17"/>
+      <c r="V151" s="17"/>
+      <c r="W151" s="17"/>
     </row>
     <row r="152" spans="1:23">
       <c r="A152" s="10" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E152" s="10"/>
-    </row>
-    <row r="153" spans="1:23">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="L152" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
+      <c r="P152" s="17"/>
+      <c r="Q152" s="17"/>
+      <c r="R152" s="17"/>
+      <c r="S152" s="17"/>
+      <c r="T152" s="17"/>
+      <c r="U152" s="17"/>
+      <c r="V152" s="17"/>
+      <c r="W152" s="17"/>
+    </row>
+    <row r="153" spans="1:23" s="10" customFormat="1">
+      <c r="A153" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L153" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" s="10" customFormat="1">
       <c r="A154" s="10" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E154" s="10"/>
-      <c r="O154" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="P154" s="17"/>
-      <c r="Q154" s="17"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="17"/>
-      <c r="T154" s="17"/>
-      <c r="U154" s="17"/>
-      <c r="V154" s="17"/>
-      <c r="W154" s="17"/>
+        <v>136</v>
+      </c>
+      <c r="L154" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="155" spans="1:23">
       <c r="A155" s="10" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E155" s="10"/>
-      <c r="O155" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="P155" s="17"/>
-      <c r="Q155" s="17"/>
-      <c r="R155" s="17"/>
-      <c r="S155" s="17"/>
-      <c r="T155" s="17"/>
-      <c r="U155" s="17"/>
-      <c r="V155" s="17"/>
-      <c r="W155" s="17"/>
     </row>
     <row r="156" spans="1:23">
       <c r="A156" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E156" s="10"/>
     </row>
     <row r="157" spans="1:23">
-      <c r="A157" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E157" s="10"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
     </row>
     <row r="158" spans="1:23">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
+      <c r="A158" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="M158" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="17"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="17"/>
+      <c r="V158" s="17"/>
+      <c r="W158" s="17"/>
     </row>
     <row r="159" spans="1:23">
       <c r="A159" s="10" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E159" s="10"/>
-      <c r="P159" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="M159" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="17"/>
+      <c r="Q159" s="17"/>
+      <c r="R159" s="17"/>
+      <c r="S159" s="17"/>
+      <c r="T159" s="17"/>
+      <c r="U159" s="17"/>
+      <c r="V159" s="17"/>
+      <c r="W159" s="17"/>
+    </row>
+    <row r="160" spans="1:23" s="10" customFormat="1">
       <c r="A160" s="10" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E160" s="10"/>
-      <c r="P160" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+        <v>144</v>
+      </c>
+      <c r="M160" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" s="10" customFormat="1">
       <c r="A161" s="10" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E161" s="10"/>
+        <v>144</v>
+      </c>
+      <c r="M161" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="162" spans="1:23">
       <c r="A162" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" s="10"/>
+    </row>
+    <row r="163" spans="1:23">
+      <c r="A163" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E162" s="10"/>
-    </row>
-    <row r="163" spans="1:23">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
+      <c r="B163" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:23">
-      <c r="A164" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E164" s="10"/>
-      <c r="Q164" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="R164" s="17"/>
-      <c r="S164" s="17"/>
-      <c r="T164" s="17"/>
-      <c r="U164" s="17"/>
-      <c r="V164" s="17"/>
-      <c r="W164" s="17"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
     </row>
     <row r="165" spans="1:23">
       <c r="A165" s="10" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E165" s="10"/>
-      <c r="Q165" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="R165" s="17"/>
-      <c r="S165" s="17"/>
-      <c r="T165" s="17"/>
-      <c r="U165" s="17"/>
-      <c r="V165" s="17"/>
-      <c r="W165" s="17"/>
+      <c r="N165" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" s="10" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E166" s="10"/>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="N166" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" s="10" customFormat="1">
       <c r="A167" s="10" t="s">
-        <v>57</v>
+        <v>333</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E167" s="10"/>
-    </row>
-    <row r="168" spans="1:23">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="N167" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" s="10" customFormat="1">
+      <c r="A168" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N168" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="169" spans="1:23">
       <c r="A169" s="10" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E169" s="10"/>
-      <c r="R169" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="S169" s="17"/>
-      <c r="T169" s="17"/>
-      <c r="U169" s="17"/>
-      <c r="V169" s="17"/>
-      <c r="W169" s="17"/>
     </row>
     <row r="170" spans="1:23">
       <c r="A170" s="10" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E170" s="10"/>
-      <c r="R170" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="S170" s="17"/>
-      <c r="T170" s="17"/>
-      <c r="U170" s="17"/>
-      <c r="V170" s="17"/>
-      <c r="W170" s="17"/>
     </row>
     <row r="171" spans="1:23">
-      <c r="A171" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E171" s="10"/>
+      <c r="A171" s="14"/>
+      <c r="B171" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:23">
       <c r="A172" s="10" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E172" s="10"/>
+      <c r="O172" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="P172" s="17"/>
+      <c r="Q172" s="17"/>
+      <c r="R172" s="17"/>
+      <c r="S172" s="17"/>
+      <c r="T172" s="17"/>
+      <c r="U172" s="17"/>
+      <c r="V172" s="17"/>
+      <c r="W172" s="17"/>
     </row>
     <row r="173" spans="1:23">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="A173" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="10"/>
+      <c r="O173" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+      <c r="S173" s="17"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="17"/>
+      <c r="V173" s="17"/>
+      <c r="W173" s="17"/>
+    </row>
+    <row r="174" spans="1:23" s="10" customFormat="1">
       <c r="A174" s="10" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E174" s="10"/>
-      <c r="S174" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23">
+        <v>160</v>
+      </c>
+      <c r="O174" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" s="10" customFormat="1">
       <c r="A175" s="10" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E175" s="10"/>
-      <c r="S175" t="s">
-        <v>292</v>
+        <v>160</v>
+      </c>
+      <c r="O175" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -4774,1033 +4900,1031 @@
         <v>55</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E176" s="10"/>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:23">
       <c r="A177" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E177" s="10"/>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:23">
       <c r="A178" s="14"/>
       <c r="B178" s="14" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="1:22">
+    <row r="179" spans="1:23">
       <c r="A179" s="10" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E179" s="10"/>
-      <c r="T179" t="s">
+      <c r="P179" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
+      <c r="A180" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E180" s="10"/>
+      <c r="P180" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" s="10" customFormat="1">
+      <c r="A181" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="P181" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
-      <c r="A180" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E180" s="10"/>
-      <c r="T180" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22">
-      <c r="A181" s="10" t="s">
+    <row r="182" spans="1:23" s="10" customFormat="1">
+      <c r="A182" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="P182" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
+      <c r="A183" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E181" s="10"/>
-    </row>
-    <row r="182" spans="1:22">
-      <c r="A182" s="10" t="s">
+      <c r="B183" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E183" s="10"/>
+    </row>
+    <row r="184" spans="1:23">
+      <c r="A184" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E182" s="10"/>
-    </row>
-    <row r="183" spans="1:22">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-    </row>
-    <row r="184" spans="1:22">
-      <c r="A184" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="B184" s="10" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="E184" s="10"/>
-      <c r="U184" t="s">
+    </row>
+    <row r="185" spans="1:23">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+    </row>
+    <row r="186" spans="1:23">
+      <c r="A186" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E186" s="10"/>
+      <c r="Q186" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="R186" s="17"/>
+      <c r="S186" s="17"/>
+      <c r="T186" s="17"/>
+      <c r="U186" s="17"/>
+      <c r="V186" s="17"/>
+      <c r="W186" s="17"/>
+    </row>
+    <row r="187" spans="1:23">
+      <c r="A187" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E187" s="10"/>
+      <c r="Q187" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="R187" s="17"/>
+      <c r="S187" s="17"/>
+      <c r="T187" s="17"/>
+      <c r="U187" s="17"/>
+      <c r="V187" s="17"/>
+      <c r="W187" s="17"/>
+    </row>
+    <row r="188" spans="1:23" s="10" customFormat="1">
+      <c r="A188" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q188" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:22">
-      <c r="A185" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E185" s="10"/>
-      <c r="U185" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22">
-      <c r="A186" s="10" t="s">
+    <row r="189" spans="1:23" s="10" customFormat="1">
+      <c r="A189" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q189" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
+      <c r="A190" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B186" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E186" s="10"/>
-    </row>
-    <row r="187" spans="1:22">
-      <c r="A187" s="10" t="s">
+      <c r="B190" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E190" s="10"/>
+    </row>
+    <row r="191" spans="1:23">
+      <c r="A191" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B187" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E187" s="10"/>
-    </row>
-    <row r="188" spans="1:22">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-    </row>
-    <row r="189" spans="1:22">
-      <c r="A189" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E189" s="10"/>
-      <c r="V189" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22">
-      <c r="A190" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="E190" s="10"/>
-      <c r="V190" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22">
-      <c r="A191" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="B191" s="10" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="C191" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="E191" s="10"/>
     </row>
-    <row r="192" spans="1:22">
-      <c r="A192" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E192" s="10"/>
+    <row r="192" spans="1:23">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
     </row>
     <row r="193" spans="1:23">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
+      <c r="A193" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E193" s="10"/>
+      <c r="R193" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="S193" s="17"/>
+      <c r="T193" s="17"/>
+      <c r="U193" s="17"/>
+      <c r="V193" s="17"/>
+      <c r="W193" s="17"/>
     </row>
     <row r="194" spans="1:23">
       <c r="A194" s="10" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="E194" s="10"/>
-      <c r="W194" t="s">
-        <v>305</v>
-      </c>
+      <c r="R194" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="S194" s="17"/>
+      <c r="T194" s="17"/>
+      <c r="U194" s="17"/>
+      <c r="V194" s="17"/>
+      <c r="W194" s="17"/>
     </row>
     <row r="195" spans="1:23">
       <c r="A195" s="10" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E195" s="10"/>
-      <c r="W195" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="196" spans="1:23">
       <c r="A196" s="10" t="s">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="E196" s="10"/>
-      <c r="W196" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="197" spans="1:23">
-      <c r="A197" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E197" s="10"/>
+      <c r="A197" s="14"/>
+      <c r="B197" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
     </row>
     <row r="198" spans="1:23">
       <c r="A198" s="10" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E198" s="10"/>
+      <c r="S198" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="199" spans="1:23">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
+      <c r="A199" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E199" s="10"/>
+      <c r="S199" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="200" spans="1:23">
       <c r="A200" s="10" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E200" s="10"/>
     </row>
     <row r="201" spans="1:23">
       <c r="A201" s="10" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C201" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E201" s="10"/>
     </row>
     <row r="202" spans="1:23">
-      <c r="A202" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E202" s="10"/>
+      <c r="A202" s="14"/>
+      <c r="B202" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
     </row>
     <row r="203" spans="1:23">
       <c r="A203" s="10" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C203" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E203" s="10"/>
+      <c r="T203" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="204" spans="1:23">
       <c r="A204" s="10" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="E204" s="10"/>
+      <c r="T204" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="205" spans="1:23">
       <c r="A205" s="10" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C205" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E205" s="10"/>
     </row>
     <row r="206" spans="1:23">
       <c r="A206" s="10" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C206" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E206" s="10"/>
     </row>
     <row r="207" spans="1:23">
-      <c r="A207" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E207" s="10"/>
+      <c r="A207" s="14"/>
+      <c r="B207" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
     </row>
     <row r="208" spans="1:23">
       <c r="A208" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E208" s="10"/>
+      <c r="U208" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23">
+      <c r="A209" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E209" s="10"/>
+      <c r="U209" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23">
+      <c r="A210" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E210" s="10"/>
+    </row>
+    <row r="211" spans="1:23">
+      <c r="A211" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E208" s="10"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="10" t="s">
+      <c r="B211" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E211" s="10"/>
+    </row>
+    <row r="212" spans="1:23">
+      <c r="A212" s="14"/>
+      <c r="B212" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+    </row>
+    <row r="213" spans="1:23">
+      <c r="A213" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E213" s="10"/>
+      <c r="V213" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23">
+      <c r="A214" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E214" s="10"/>
+      <c r="V214" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23">
+      <c r="A215" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E215" s="10"/>
+    </row>
+    <row r="216" spans="1:23">
+      <c r="A216" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E216" s="10"/>
+    </row>
+    <row r="217" spans="1:23">
+      <c r="A217" s="14"/>
+      <c r="B217" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+    </row>
+    <row r="218" spans="1:23">
+      <c r="A218" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E218" s="10"/>
+      <c r="W218" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23">
+      <c r="A219" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E219" s="10"/>
+      <c r="W219" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23">
+      <c r="A220" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E220" s="10"/>
+      <c r="W220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23">
+      <c r="A221" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E221" s="10"/>
+    </row>
+    <row r="222" spans="1:23">
+      <c r="A222" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E222" s="10"/>
+    </row>
+    <row r="223" spans="1:23">
+      <c r="A223" s="14"/>
+      <c r="B223" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+    </row>
+    <row r="224" spans="1:23">
+      <c r="A224" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B224" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C209" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E209" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D210" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E210" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B211" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E211" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E212" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E213" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E214" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E215" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B216" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D216" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E216" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D217" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E217" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E218" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E219" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E220" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B221" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D221" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E221" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B222" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D222" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E222" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D223" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E223" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="C224" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E224" s="10">
-        <v>2</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E224" s="10"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="10" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E225" s="10">
-        <v>2</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E225" s="10"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E226" s="10">
-        <v>2</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E226" s="10"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="10" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C227" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E227" s="10">
-        <v>3</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E227" s="10"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C228" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E228" s="10">
-        <v>3</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E228" s="10"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="10" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C229" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E229" s="10">
-        <v>3</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E229" s="10"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="10" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C230" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E230" s="10">
-        <v>3</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E230" s="10"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="10" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C231" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E231" s="10">
-        <v>3</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E231" s="10"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="10" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E232" s="10">
-        <v>3</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C233" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E233" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="10" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E234" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E235" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B236" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C235" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E235" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="14"/>
-      <c r="B236" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
-      <c r="E236" s="14"/>
+      <c r="C236" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E236" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="10" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="C237" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E237" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="E237" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="10" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E238" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="E238" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="10" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C239" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E239" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="E239" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C240" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E240" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="E240" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E241" s="10">
         <v>1</v>
@@ -5808,67 +5932,67 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="10" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E242" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="10" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C243" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E243" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C244" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E244" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="C245" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E245" s="10">
         <v>2</v>
@@ -5876,16 +6000,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="10" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="C246" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E246" s="10">
         <v>2</v>
@@ -5893,16 +6017,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="10" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C247" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E247" s="10">
         <v>2</v>
@@ -5910,16 +6034,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="10" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C248" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E248" s="10">
         <v>2</v>
@@ -5927,50 +6051,50 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E249" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="10" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="C250" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E250" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="10" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C251" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E251" s="10">
         <v>3</v>
@@ -5978,90 +6102,104 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="10" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C252" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E252" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="14"/>
-      <c r="B253" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="14"/>
+      <c r="A253" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E253" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="10" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="C254" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E254" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="E254" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="10" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C255" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E255" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="E255" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="10" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C256" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E256" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="E256" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="C257" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E257" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6069,16 +6207,16 @@
         <v>55</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="C258" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E258" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6086,355 +6224,357 @@
         <v>57</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="C259" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E259" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B260" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E260" s="10">
-        <v>2</v>
-      </c>
+      <c r="A260" s="14"/>
+      <c r="B260" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="C261" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E261" s="10">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E261" s="10"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="C262" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E262" s="10">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E262" s="10"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="10" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="C263" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E263" s="10">
-        <v>3</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E263" s="10"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="C264" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E264" s="10">
-        <v>3</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E264" s="10"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="C265" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E265" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="14"/>
-      <c r="B266" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
+      <c r="A266" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E266" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="10" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E267" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E267" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E268" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E268" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E269" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E269" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="10" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E270" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E270" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E271" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E271" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E272" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E272" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="10" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E273" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E273" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E274" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E274" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E275" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E275" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="10" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E276" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E276" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E277" s="10"/>
+      <c r="A277" s="14"/>
+      <c r="B277" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="10" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E278" s="10"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="10" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E279" s="10">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E279" s="10"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E280" s="10">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E280" s="10"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="10" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E281" s="10">
         <v>1</v>
@@ -6442,50 +6582,50 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="10" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E282" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E283" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="10" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E284" s="10">
         <v>2</v>
@@ -6493,290 +6633,666 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="10" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E285" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E286" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="10" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E287" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="14"/>
-      <c r="B288" s="14" t="s">
+      <c r="A288" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E288" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E289" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="14"/>
+      <c r="B290" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E291" s="10"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E292" s="10"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E293" s="10"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E294" s="10"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E295" s="10"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E296" s="10"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E297" s="10"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E298" s="10"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E299" s="10"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E300" s="10"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E301" s="10"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E302" s="10"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E303" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E304" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E305" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E306" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D307" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E307" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D308" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E308" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E309" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E310" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E311" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="14"/>
+      <c r="B312" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
-      <c r="E288" s="14"/>
-    </row>
-    <row r="289" spans="1:23">
-      <c r="A289" s="10" t="s">
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B313" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C289" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D289" s="10" t="s">
+      <c r="C313" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D313" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E289" s="10"/>
-    </row>
-    <row r="290" spans="1:23">
-      <c r="A290" s="10" t="s">
+      <c r="E313" s="10"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B314" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C290" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D290" s="10" t="s">
+      <c r="C314" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D314" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E290" s="10"/>
-    </row>
-    <row r="291" spans="1:23">
-      <c r="A291" s="10" t="s">
+      <c r="E314" s="10"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B315" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C291" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D291" s="10" t="s">
+      <c r="C315" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D315" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E291" s="10"/>
-    </row>
-    <row r="292" spans="1:23">
-      <c r="A292" s="10" t="s">
+      <c r="E315" s="10"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B316" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C292" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D292" s="10" t="s">
+      <c r="C316" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D316" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E292" s="10">
+      <c r="E316" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
-      <c r="A293" s="10" t="s">
+    <row r="317" spans="1:5">
+      <c r="A317" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B317" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C293" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D293" s="10" t="s">
+      <c r="C317" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D317" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E293" s="10">
+      <c r="E317" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
-      <c r="A294" s="10" t="s">
+    <row r="318" spans="1:5">
+      <c r="A318" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B318" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C294" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D294" s="10" t="s">
+      <c r="C318" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D318" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E294" s="10">
+      <c r="E318" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
-      <c r="A295" s="10" t="s">
+    <row r="319" spans="1:5">
+      <c r="A319" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B319" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C295" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D295" s="10" t="s">
+      <c r="C319" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D319" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E295" s="10">
+      <c r="E319" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
-      <c r="A296" s="10" t="s">
+    <row r="320" spans="1:5">
+      <c r="A320" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B320" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C296" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D296" s="10" t="s">
+      <c r="C320" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D320" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E296" s="10">
+      <c r="E320" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
-      <c r="A297" s="10" t="s">
+    <row r="321" spans="1:23">
+      <c r="A321" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B321" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C297" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D297" s="10" t="s">
+      <c r="C321" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D321" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E297" s="10">
+      <c r="E321" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
-      <c r="A298" s="10" t="s">
+    <row r="322" spans="1:23">
+      <c r="A322" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B322" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C298" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D298" s="10" t="s">
+      <c r="C322" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D322" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E298" s="10">
+      <c r="E322" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
-      <c r="A299" s="10" t="s">
+    <row r="323" spans="1:23">
+      <c r="A323" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B323" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C299" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D299" s="10" t="s">
+      <c r="C323" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D323" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E299" s="10">
+      <c r="E323" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
-      <c r="A300" s="10" t="s">
+    <row r="324" spans="1:23">
+      <c r="A324" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B324" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C300" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D300" s="10" t="s">
+      <c r="C324" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D324" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E300" s="10">
+      <c r="E324" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
-      <c r="A301" s="12" t="s">
+    <row r="325" spans="1:23">
+      <c r="A325" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B301" s="12" t="s">
+      <c r="B325" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C301" s="12"/>
-      <c r="D301" s="12"/>
-      <c r="E301" s="12"/>
-      <c r="F301" s="12"/>
-      <c r="G301" s="12"/>
-      <c r="H301" s="13"/>
-      <c r="I301" s="13"/>
-      <c r="J301" s="13"/>
-      <c r="K301" s="13"/>
-      <c r="L301" s="13"/>
-      <c r="M301" s="13"/>
-      <c r="N301" s="13"/>
-      <c r="O301" s="13"/>
-      <c r="P301" s="13"/>
-      <c r="Q301" s="13"/>
-      <c r="R301" s="13"/>
-      <c r="S301" s="13"/>
-      <c r="T301" s="13"/>
-      <c r="U301" s="13"/>
-      <c r="V301" s="13"/>
-      <c r="W301" s="13"/>
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
+      <c r="F325" s="12"/>
+      <c r="G325" s="12"/>
+      <c r="H325" s="13"/>
+      <c r="I325" s="13"/>
+      <c r="J325" s="13"/>
+      <c r="K325" s="13"/>
+      <c r="L325" s="13"/>
+      <c r="M325" s="13"/>
+      <c r="N325" s="13"/>
+      <c r="O325" s="13"/>
+      <c r="P325" s="13"/>
+      <c r="Q325" s="13"/>
+      <c r="R325" s="13"/>
+      <c r="S325" s="13"/>
+      <c r="T325" s="13"/>
+      <c r="U325" s="13"/>
+      <c r="V325" s="13"/>
+      <c r="W325" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6791,11 +7307,11 @@
     <hyperlink ref="H4" r:id="rId3" xr:uid="{6D8BABCC-5F38-4D4C-B128-EA6EDEA1558C}"/>
     <hyperlink ref="I4" r:id="rId4" xr:uid="{D64F2A81-4110-4AE9-8003-56F571051D27}"/>
     <hyperlink ref="J4" r:id="rId5" xr:uid="{9CE05258-5C64-49CB-9205-4D205198D6B6}"/>
-    <hyperlink ref="J129" r:id="rId6" xr:uid="{0627147F-A2DC-4DFE-8170-1011A47D83FA}"/>
-    <hyperlink ref="J130" r:id="rId7" xr:uid="{2D8E64DA-00F9-4205-A32C-9319535754A7}"/>
+    <hyperlink ref="J137" r:id="rId6" xr:uid="{0627147F-A2DC-4DFE-8170-1011A47D83FA}"/>
+    <hyperlink ref="J138" r:id="rId7" xr:uid="{2D8E64DA-00F9-4205-A32C-9319535754A7}"/>
     <hyperlink ref="K4" r:id="rId8" xr:uid="{FB63195B-9351-46AE-8B09-839C04FFE33E}"/>
-    <hyperlink ref="K134" r:id="rId9" xr:uid="{966D005E-6021-4ABF-AC4B-572E4A07B486}"/>
-    <hyperlink ref="K135" r:id="rId10" xr:uid="{0DFDE418-52E0-4E71-A666-B6EB7E7853D3}"/>
+    <hyperlink ref="K144" r:id="rId9" xr:uid="{966D005E-6021-4ABF-AC4B-572E4A07B486}"/>
+    <hyperlink ref="K145" r:id="rId10" xr:uid="{0DFDE418-52E0-4E71-A666-B6EB7E7853D3}"/>
     <hyperlink ref="L4" r:id="rId11" xr:uid="{E8C26341-82EB-4CC2-8D92-9FA8A0793877}"/>
     <hyperlink ref="M4" r:id="rId12" xr:uid="{8122D9EC-E5EA-4C6E-A602-D547805E0B1D}"/>
     <hyperlink ref="N4" r:id="rId13" xr:uid="{C9E7D643-D4EB-4EC4-98BC-5C7287C09FD6}"/>

--- a/kubera/src/test/resources/excel/Excelテスト.xlsx
+++ b/kubera/src/test/resources/excel/Excelテスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF37C89-9875-45CF-82B2-8734273F3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4CFD55-EB68-4578-8D0C-BB489CF64A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="1560" windowWidth="25600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -177,15 +177,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>true</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>displayNonTextButton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1213,6 +1205,14 @@
   </si>
   <si>
     <t>[数値項目]の値が空であることを検証する</t>
+  </si>
+  <si>
+    <t>isInvisible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isDisable</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1680,7 +1680,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1716,38 +1716,38 @@
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="36">
       <c r="A7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="36">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1761,7 +1761,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1813,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DB0A6-176D-47F3-B48F-484BEC59E84F}">
   <dimension ref="A1:W325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="O148" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1843,58 +1843,58 @@
       <c r="D1" s="18"/>
       <c r="E1" s="12"/>
       <c r="F1" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>266</v>
-      </c>
       <c r="H1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>293</v>
-      </c>
       <c r="U1" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1902,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1930,70 +1930,70 @@
         <v>6</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="12"/>
       <c r="F4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2001,196 +2001,196 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -2198,16 +2198,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -2215,16 +2215,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -2232,16 +2232,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -2249,16 +2249,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="10">
         <v>2</v>
@@ -2266,16 +2266,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="10">
         <v>2</v>
@@ -2283,16 +2283,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="10">
         <v>2</v>
@@ -2300,16 +2300,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="10">
         <v>2</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <v>3</v>
@@ -2334,16 +2334,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="10">
         <v>3</v>
@@ -2351,16 +2351,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="10">
         <v>3</v>
@@ -2368,16 +2368,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="10">
         <v>3</v>
@@ -2386,7 +2386,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="14"/>
       <c r="B30" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -2394,46 +2394,46 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
@@ -2441,16 +2441,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
@@ -2458,16 +2458,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" s="10">
         <v>2</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="10">
         <v>2</v>
@@ -2492,16 +2492,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="10">
         <v>3</v>
@@ -2509,16 +2509,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="10">
         <v>3</v>
@@ -2526,46 +2526,46 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E41" s="10">
         <v>1</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="10">
         <v>1</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E43" s="10">
         <v>2</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44" s="10">
         <v>2</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E45" s="10">
         <v>3</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" s="10">
         <v>3</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E47" s="10">
         <v>4</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" s="10">
         <v>4</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E49" s="10">
         <v>5</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="10">
         <v>5</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E51" s="10">
         <v>6</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="10">
         <v>6</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E53" s="10">
         <v>7</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E54" s="10">
         <v>7</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E55" s="10">
         <v>8</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E56" s="10">
         <v>8</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E57" s="10">
         <v>9</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E58" s="10">
         <v>9</v>
@@ -2863,7 +2863,7 @@
     <row r="59" spans="1:5">
       <c r="A59" s="14"/>
       <c r="B59" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2871,196 +2871,196 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E72" s="10">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E73" s="10">
         <v>1</v>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E74" s="10">
         <v>1</v>
@@ -3102,16 +3102,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E75" s="10">
         <v>1</v>
@@ -3119,16 +3119,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E76" s="10">
         <v>1</v>
@@ -3136,16 +3136,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E77" s="10">
         <v>1</v>
@@ -3153,16 +3153,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E78" s="10">
         <v>1</v>
@@ -3170,16 +3170,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E79" s="10">
         <v>1</v>
@@ -3187,16 +3187,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E80" s="10">
         <v>1</v>
@@ -3204,16 +3204,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E81" s="10">
         <v>1</v>
@@ -3221,16 +3221,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E82" s="10">
         <v>1</v>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E83" s="10">
         <v>1</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E84" s="10">
         <v>2</v>
@@ -3272,16 +3272,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E85" s="10">
         <v>2</v>
@@ -3289,16 +3289,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E86" s="10">
         <v>2</v>
@@ -3306,16 +3306,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E87" s="10">
         <v>2</v>
@@ -3323,16 +3323,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E88" s="10">
         <v>2</v>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E89" s="10">
         <v>2</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E90" s="10">
         <v>2</v>
@@ -3374,16 +3374,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E91" s="10">
         <v>2</v>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E92" s="10">
         <v>2</v>
@@ -3408,16 +3408,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E93" s="10">
         <v>2</v>
@@ -3425,16 +3425,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E94" s="10">
         <v>2</v>
@@ -3442,16 +3442,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E95" s="10">
         <v>2</v>
@@ -3459,16 +3459,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96" s="10">
         <v>3</v>
@@ -3476,16 +3476,16 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E97" s="10">
         <v>3</v>
@@ -3493,16 +3493,16 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E98" s="10">
         <v>3</v>
@@ -3510,16 +3510,16 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E99" s="10">
         <v>3</v>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E100" s="10">
         <v>3</v>
@@ -3544,16 +3544,16 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E101" s="10">
         <v>3</v>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="102" spans="1:23">
       <c r="A102" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E102" s="10">
         <v>3</v>
@@ -3578,16 +3578,16 @@
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E103" s="10">
         <v>3</v>
@@ -3595,16 +3595,16 @@
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E104" s="10">
         <v>3</v>
@@ -3612,16 +3612,16 @@
     </row>
     <row r="105" spans="1:23">
       <c r="A105" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E105" s="10">
         <v>3</v>
@@ -3629,16 +3629,16 @@
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E106" s="10">
         <v>3</v>
@@ -3646,16 +3646,16 @@
     </row>
     <row r="107" spans="1:23">
       <c r="A107" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E107" s="10">
         <v>3</v>
@@ -3664,7 +3664,7 @@
     <row r="108" spans="1:23">
       <c r="A108" s="14"/>
       <c r="B108" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
@@ -3672,20 +3672,20 @@
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
@@ -3707,20 +3707,20 @@
     </row>
     <row r="110" spans="1:23">
       <c r="A110" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -3742,72 +3742,72 @@
     </row>
     <row r="111" spans="1:23" s="10" customFormat="1">
       <c r="A111" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:23" s="10" customFormat="1">
       <c r="A112" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:23">
       <c r="A113" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:23">
       <c r="A114" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:23">
       <c r="A115" s="14"/>
       <c r="B115" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
@@ -3815,20 +3815,20 @@
     </row>
     <row r="116" spans="1:23">
       <c r="A116" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="E116" s="10"/>
       <c r="G116" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
@@ -3849,20 +3849,20 @@
     </row>
     <row r="117" spans="1:23">
       <c r="A117" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E117" s="10"/>
       <c r="G117" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
@@ -3883,72 +3883,72 @@
     </row>
     <row r="118" spans="1:23" s="10" customFormat="1">
       <c r="A118" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:23" s="10" customFormat="1">
       <c r="A119" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:23">
       <c r="A120" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E120" s="10"/>
     </row>
     <row r="121" spans="1:23">
       <c r="A121" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:23">
       <c r="A122" s="14"/>
       <c r="B122" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -3956,108 +3956,108 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="E123" s="10"/>
       <c r="H123" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:23">
       <c r="A124" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E124" s="10"/>
       <c r="H124" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:23" s="10" customFormat="1">
       <c r="A125" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:23" s="10" customFormat="1">
       <c r="A126" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:23">
       <c r="A127" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="1:23">
       <c r="A128" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E128" s="10"/>
     </row>
     <row r="129" spans="1:23">
       <c r="A129" s="14"/>
       <c r="B129" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
@@ -4065,108 +4065,108 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="E130" s="10"/>
       <c r="I130" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:23">
       <c r="A131" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E131" s="10"/>
       <c r="I131" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:23" s="10" customFormat="1">
       <c r="A132" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:23" s="10" customFormat="1">
       <c r="A133" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:23">
       <c r="A134" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="1:23">
       <c r="A135" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="1:23">
       <c r="A136" s="14"/>
       <c r="B136" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
@@ -4174,20 +4174,20 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="E137" s="10"/>
       <c r="J137" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K137" s="15"/>
       <c r="L137" s="15"/>
@@ -4205,20 +4205,20 @@
     </row>
     <row r="138" spans="1:23">
       <c r="A138" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E138" s="10"/>
       <c r="J138" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K138" s="15"/>
       <c r="L138" s="15"/>
@@ -4236,72 +4236,72 @@
     </row>
     <row r="139" spans="1:23" s="10" customFormat="1">
       <c r="A139" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:23" s="10" customFormat="1">
       <c r="A140" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:23">
       <c r="A141" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:23">
       <c r="A142" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E142" s="10"/>
     </row>
     <row r="143" spans="1:23">
       <c r="A143" s="14"/>
       <c r="B143" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
@@ -4309,20 +4309,20 @@
     </row>
     <row r="144" spans="1:23">
       <c r="A144" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="E144" s="10"/>
       <c r="K144" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L144" s="15"/>
       <c r="M144" s="15"/>
@@ -4339,20 +4339,20 @@
     </row>
     <row r="145" spans="1:23">
       <c r="A145" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E145" s="10"/>
       <c r="K145" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L145" s="15"/>
       <c r="M145" s="15"/>
@@ -4369,72 +4369,72 @@
     </row>
     <row r="146" spans="1:23" s="10" customFormat="1">
       <c r="A146" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K146" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:23" s="10" customFormat="1">
       <c r="A147" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K147" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:23">
       <c r="A148" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E148" s="10"/>
     </row>
     <row r="149" spans="1:23">
       <c r="A149" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:23">
       <c r="A150" s="14"/>
       <c r="B150" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
@@ -4442,20 +4442,20 @@
     </row>
     <row r="151" spans="1:23">
       <c r="A151" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="E151" s="10"/>
       <c r="L151" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
@@ -4471,20 +4471,20 @@
     </row>
     <row r="152" spans="1:23">
       <c r="A152" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E152" s="10"/>
       <c r="L152" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
@@ -4500,72 +4500,72 @@
     </row>
     <row r="153" spans="1:23" s="10" customFormat="1">
       <c r="A153" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:23" s="10" customFormat="1">
       <c r="A154" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:23">
       <c r="A155" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E155" s="10"/>
     </row>
     <row r="156" spans="1:23">
       <c r="A156" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E156" s="10"/>
     </row>
     <row r="157" spans="1:23">
       <c r="A157" s="14"/>
       <c r="B157" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
@@ -4573,20 +4573,20 @@
     </row>
     <row r="158" spans="1:23">
       <c r="A158" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="E158" s="10"/>
       <c r="M158" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N158" s="17"/>
       <c r="O158" s="17"/>
@@ -4601,20 +4601,20 @@
     </row>
     <row r="159" spans="1:23">
       <c r="A159" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E159" s="10"/>
       <c r="M159" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N159" s="17"/>
       <c r="O159" s="17"/>
@@ -4629,72 +4629,72 @@
     </row>
     <row r="160" spans="1:23" s="10" customFormat="1">
       <c r="A160" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M160" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:23" s="10" customFormat="1">
       <c r="A161" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M161" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:23">
       <c r="A162" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:23">
       <c r="A163" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:23">
       <c r="A164" s="14"/>
       <c r="B164" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
@@ -4702,108 +4702,108 @@
     </row>
     <row r="165" spans="1:23">
       <c r="A165" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="E165" s="10"/>
       <c r="N165" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E166" s="10"/>
       <c r="N166" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:23" s="10" customFormat="1">
       <c r="A167" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:23" s="10" customFormat="1">
       <c r="A168" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:23">
       <c r="A169" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E169" s="10"/>
     </row>
     <row r="170" spans="1:23">
       <c r="A170" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="1:23">
       <c r="A171" s="14"/>
       <c r="B171" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
@@ -4811,20 +4811,20 @@
     </row>
     <row r="172" spans="1:23">
       <c r="A172" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="E172" s="10"/>
       <c r="O172" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P172" s="17"/>
       <c r="Q172" s="17"/>
@@ -4837,20 +4837,20 @@
     </row>
     <row r="173" spans="1:23">
       <c r="A173" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E173" s="10"/>
       <c r="O173" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P173" s="17"/>
       <c r="Q173" s="17"/>
@@ -4863,72 +4863,72 @@
     </row>
     <row r="174" spans="1:23" s="10" customFormat="1">
       <c r="A174" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O174" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:23" s="10" customFormat="1">
       <c r="A175" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O175" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:23">
       <c r="A176" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E176" s="10"/>
     </row>
     <row r="177" spans="1:23">
       <c r="A177" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E177" s="10"/>
     </row>
     <row r="178" spans="1:23">
       <c r="A178" s="14"/>
       <c r="B178" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
@@ -4936,108 +4936,108 @@
     </row>
     <row r="179" spans="1:23">
       <c r="A179" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="E179" s="10"/>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="1:23">
       <c r="A180" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E180" s="10"/>
       <c r="P180" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:23" s="10" customFormat="1">
       <c r="A181" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P181" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:23" s="10" customFormat="1">
       <c r="A182" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P182" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:23">
       <c r="A183" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E183" s="10"/>
     </row>
     <row r="184" spans="1:23">
       <c r="A184" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E184" s="10"/>
     </row>
     <row r="185" spans="1:23">
       <c r="A185" s="14"/>
       <c r="B185" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
@@ -5045,20 +5045,20 @@
     </row>
     <row r="186" spans="1:23">
       <c r="A186" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D186" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="E186" s="10"/>
       <c r="Q186" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R186" s="17"/>
       <c r="S186" s="17"/>
@@ -5069,20 +5069,20 @@
     </row>
     <row r="187" spans="1:23">
       <c r="A187" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E187" s="10"/>
       <c r="Q187" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R187" s="17"/>
       <c r="S187" s="17"/>
@@ -5093,72 +5093,72 @@
     </row>
     <row r="188" spans="1:23" s="10" customFormat="1">
       <c r="A188" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q188" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:23" s="10" customFormat="1">
       <c r="A189" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q189" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:23">
       <c r="A190" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E190" s="10"/>
     </row>
     <row r="191" spans="1:23">
       <c r="A191" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E191" s="10"/>
     </row>
     <row r="192" spans="1:23">
       <c r="A192" s="14"/>
       <c r="B192" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -5166,20 +5166,20 @@
     </row>
     <row r="193" spans="1:23">
       <c r="A193" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="E193" s="10"/>
       <c r="R193" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S193" s="17"/>
       <c r="T193" s="17"/>
@@ -5189,20 +5189,20 @@
     </row>
     <row r="194" spans="1:23">
       <c r="A194" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E194" s="10"/>
       <c r="R194" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S194" s="17"/>
       <c r="T194" s="17"/>
@@ -5212,38 +5212,38 @@
     </row>
     <row r="195" spans="1:23">
       <c r="A195" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E195" s="10"/>
     </row>
     <row r="196" spans="1:23">
       <c r="A196" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E196" s="10"/>
     </row>
     <row r="197" spans="1:23">
       <c r="A197" s="14"/>
       <c r="B197" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
@@ -5251,74 +5251,74 @@
     </row>
     <row r="198" spans="1:23">
       <c r="A198" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D198" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="E198" s="10"/>
       <c r="S198" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:23">
       <c r="A199" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E199" s="10"/>
       <c r="S199" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="1:23">
       <c r="A200" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E200" s="10"/>
     </row>
     <row r="201" spans="1:23">
       <c r="A201" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E201" s="10"/>
     </row>
     <row r="202" spans="1:23">
       <c r="A202" s="14"/>
       <c r="B202" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
@@ -5326,74 +5326,74 @@
     </row>
     <row r="203" spans="1:23">
       <c r="A203" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D203" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B203" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="E203" s="10"/>
       <c r="T203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:23">
       <c r="A204" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B204" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="B204" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E204" s="10"/>
       <c r="T204" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="1:23">
       <c r="A205" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E205" s="10"/>
     </row>
     <row r="206" spans="1:23">
       <c r="A206" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E206" s="10"/>
     </row>
     <row r="207" spans="1:23">
       <c r="A207" s="14"/>
       <c r="B207" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
@@ -5401,74 +5401,74 @@
     </row>
     <row r="208" spans="1:23">
       <c r="A208" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="B208" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="E208" s="10"/>
       <c r="U208" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:23">
       <c r="A209" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B209" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="C209" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E209" s="10"/>
       <c r="U209" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="1:23">
       <c r="A210" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E210" s="10"/>
     </row>
     <row r="211" spans="1:23">
       <c r="A211" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E211" s="10"/>
     </row>
     <row r="212" spans="1:23">
       <c r="A212" s="14"/>
       <c r="B212" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
@@ -5476,74 +5476,74 @@
     </row>
     <row r="213" spans="1:23">
       <c r="A213" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="E213" s="10"/>
       <c r="V213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:23">
       <c r="A214" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B214" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="C214" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E214" s="10"/>
       <c r="V214" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="215" spans="1:23">
       <c r="A215" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E215" s="10"/>
     </row>
     <row r="216" spans="1:23">
       <c r="A216" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="1:23">
       <c r="A217" s="14"/>
       <c r="B217" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
@@ -5551,92 +5551,92 @@
     </row>
     <row r="218" spans="1:23">
       <c r="A218" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E218" s="10"/>
       <c r="W218" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:23">
       <c r="A219" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="E219" s="10"/>
       <c r="W219" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:23">
       <c r="A220" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E220" s="10"/>
       <c r="W220" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221" spans="1:23">
       <c r="A221" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E221" s="10"/>
     </row>
     <row r="222" spans="1:23">
       <c r="A222" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E222" s="10"/>
     </row>
     <row r="223" spans="1:23">
       <c r="A223" s="14"/>
       <c r="B223" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
@@ -5644,151 +5644,151 @@
     </row>
     <row r="224" spans="1:23">
       <c r="A224" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D224" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="E224" s="10"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E225" s="10"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E226" s="10"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E227" s="10"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D228" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="B228" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D228" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="E228" s="10"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E230" s="10"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E231" s="10"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E233" s="10">
         <v>1</v>
@@ -5796,16 +5796,16 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E234" s="10">
         <v>1</v>
@@ -5813,16 +5813,16 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E235" s="10">
         <v>1</v>
@@ -5830,16 +5830,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E236" s="10">
         <v>1</v>
@@ -5847,16 +5847,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E237" s="10">
         <v>1</v>
@@ -5864,16 +5864,16 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E238" s="10">
         <v>1</v>
@@ -5881,16 +5881,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B239" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D239" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D239" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="E239" s="10">
         <v>1</v>
@@ -5898,16 +5898,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E240" s="10">
         <v>1</v>
@@ -5915,16 +5915,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E241" s="10">
         <v>1</v>
@@ -5932,16 +5932,16 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E242" s="10">
         <v>2</v>
@@ -5949,16 +5949,16 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E243" s="10">
         <v>2</v>
@@ -5966,16 +5966,16 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E244" s="10">
         <v>2</v>
@@ -5983,16 +5983,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E245" s="10">
         <v>2</v>
@@ -6000,16 +6000,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E246" s="10">
         <v>2</v>
@@ -6017,16 +6017,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E247" s="10">
         <v>2</v>
@@ -6034,16 +6034,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B248" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D248" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="E248" s="10">
         <v>2</v>
@@ -6051,16 +6051,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E249" s="10">
         <v>2</v>
@@ -6068,16 +6068,16 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E250" s="10">
         <v>2</v>
@@ -6085,16 +6085,16 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E251" s="10">
         <v>3</v>
@@ -6102,16 +6102,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E252" s="10">
         <v>3</v>
@@ -6119,16 +6119,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E253" s="10">
         <v>3</v>
@@ -6136,16 +6136,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E254" s="10">
         <v>3</v>
@@ -6153,16 +6153,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E255" s="10">
         <v>3</v>
@@ -6170,16 +6170,16 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E256" s="10">
         <v>3</v>
@@ -6187,16 +6187,16 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B257" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D257" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="E257" s="10">
         <v>3</v>
@@ -6204,16 +6204,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E258" s="10">
         <v>3</v>
@@ -6221,16 +6221,16 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E259" s="10">
         <v>3</v>
@@ -6239,7 +6239,7 @@
     <row r="260" spans="1:5">
       <c r="A260" s="14"/>
       <c r="B260" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
@@ -6247,76 +6247,76 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B261" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D261" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E261" s="10"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B262" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D262" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E262" s="10"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E263" s="10"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E264" s="10"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E265" s="10">
         <v>1</v>
@@ -6324,16 +6324,16 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E266" s="10">
         <v>1</v>
@@ -6341,16 +6341,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B267" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D267" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="E267" s="10">
         <v>1</v>
@@ -6358,16 +6358,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E268" s="10">
         <v>1</v>
@@ -6375,16 +6375,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E269" s="10">
         <v>2</v>
@@ -6392,16 +6392,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E270" s="10">
         <v>2</v>
@@ -6409,16 +6409,16 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B271" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D271" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D271" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="E271" s="10">
         <v>2</v>
@@ -6426,16 +6426,16 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E272" s="10">
         <v>2</v>
@@ -6443,16 +6443,16 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E273" s="10">
         <v>3</v>
@@ -6460,16 +6460,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E274" s="10">
         <v>3</v>
@@ -6477,16 +6477,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B275" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="C275" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D275" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="E275" s="10">
         <v>3</v>
@@ -6494,16 +6494,16 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E276" s="10">
         <v>3</v>
@@ -6512,7 +6512,7 @@
     <row r="277" spans="1:5">
       <c r="A277" s="14"/>
       <c r="B277" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C277" s="14"/>
       <c r="D277" s="14"/>
@@ -6520,61 +6520,61 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E278" s="10"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E279" s="10"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E280" s="10"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D281" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="B281" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D281" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="E281" s="10">
         <v>1</v>
@@ -6582,16 +6582,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E282" s="10">
         <v>1</v>
@@ -6599,16 +6599,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E283" s="10">
         <v>1</v>
@@ -6616,16 +6616,16 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D284" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D284" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="E284" s="10">
         <v>2</v>
@@ -6633,16 +6633,16 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E285" s="10">
         <v>2</v>
@@ -6650,16 +6650,16 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E286" s="10">
         <v>2</v>
@@ -6667,16 +6667,16 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D287" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="B287" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D287" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="E287" s="10">
         <v>3</v>
@@ -6684,16 +6684,16 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E288" s="10">
         <v>3</v>
@@ -6701,16 +6701,16 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E289" s="10">
         <v>3</v>
@@ -6719,7 +6719,7 @@
     <row r="290" spans="1:5">
       <c r="A290" s="14"/>
       <c r="B290" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C290" s="14"/>
       <c r="D290" s="14"/>
@@ -6727,196 +6727,196 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C291" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="D291" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D291" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="E291" s="10"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E292" s="10"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E293" s="10"/>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C294" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B294" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="D294" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E294" s="10"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B295" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D295" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="C295" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D295" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="E295" s="10"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E296" s="10"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C297" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B297" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C297" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="D297" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E297" s="10"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E298" s="10"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B299" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D299" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="C299" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D299" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="E299" s="10"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C300" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B300" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C300" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="D300" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E300" s="10"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E301" s="10"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E302" s="10"/>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C303" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B303" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C303" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="D303" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E303" s="10">
         <v>1</v>
@@ -6924,16 +6924,16 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E304" s="10">
         <v>1</v>
@@ -6941,16 +6941,16 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E305" s="10">
         <v>1</v>
@@ -6958,16 +6958,16 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C306" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B306" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C306" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="D306" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E306" s="10">
         <v>2</v>
@@ -6975,16 +6975,16 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E307" s="10">
         <v>2</v>
@@ -6992,16 +6992,16 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E308" s="10">
         <v>2</v>
@@ -7009,16 +7009,16 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C309" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C309" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="D309" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E309" s="10">
         <v>3</v>
@@ -7026,16 +7026,16 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E310" s="10">
         <v>3</v>
@@ -7043,16 +7043,16 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E311" s="10">
         <v>3</v>
@@ -7061,7 +7061,7 @@
     <row r="312" spans="1:5">
       <c r="A312" s="14"/>
       <c r="B312" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C312" s="14"/>
       <c r="D312" s="14"/>
@@ -7069,61 +7069,61 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D313" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E313" s="10"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D314" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E314" s="10"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E315" s="10"/>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E316" s="10">
         <v>1</v>
@@ -7131,16 +7131,16 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B317" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D317" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D317" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="E317" s="10">
         <v>1</v>
@@ -7148,16 +7148,16 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D318" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E318" s="10">
         <v>1</v>
@@ -7165,16 +7165,16 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E319" s="10">
         <v>2</v>
@@ -7182,16 +7182,16 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B320" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D320" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="C320" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D320" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="E320" s="10">
         <v>2</v>
@@ -7199,16 +7199,16 @@
     </row>
     <row r="321" spans="1:23">
       <c r="A321" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D321" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E321" s="10">
         <v>2</v>
@@ -7216,16 +7216,16 @@
     </row>
     <row r="322" spans="1:23">
       <c r="A322" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E322" s="10">
         <v>3</v>
@@ -7233,16 +7233,16 @@
     </row>
     <row r="323" spans="1:23">
       <c r="A323" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B323" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D323" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="C323" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D323" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="E323" s="10">
         <v>3</v>
@@ -7250,16 +7250,16 @@
     </row>
     <row r="324" spans="1:23">
       <c r="A324" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E324" s="10">
         <v>3</v>
@@ -7334,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4A950D-4536-4D14-90A1-95F34AA1DFB8}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7359,10 +7359,10 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="F1" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7455,18 +7455,18 @@
         <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -7483,12 +7483,12 @@
         <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>25</v>
@@ -7508,35 +7508,35 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>29</v>
@@ -7550,10 +7550,10 @@
         <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
